--- a/角度分配條件.xlsx
+++ b/角度分配條件.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A5BCA-FB3D-4803-8A74-3A34D88E9DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6048EC-2BDF-4A18-BAB5-11F4E192898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{8C7981F1-7064-4B9E-9E46-994802E04224}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>關鍵字</t>
   </si>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>_LSL_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Bex_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2865A17C-384F-47B8-8919-792FD1198880}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -627,11 +623,6 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/角度分配條件.xlsx
+++ b/角度分配條件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6048EC-2BDF-4A18-BAB5-11F4E192898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5DE59-50BA-6D4F-B2FD-B461058ABCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{8C7981F1-7064-4B9E-9E46-994802E04224}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="4" xr2:uid="{8C7981F1-7064-4B9E-9E46-994802E04224}"/>
   </bookViews>
   <sheets>
     <sheet name="移到外層的檔名" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
-  <si>
-    <t>關鍵字</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Thumbs</t>
   </si>
@@ -108,24 +105,10 @@
     <t>Fin_Model,Fin_Torso</t>
   </si>
   <si>
-    <t>三合一外套</t>
-  </si>
-  <si>
-    <t>Fex_Model,_Fin_eCom</t>
-  </si>
-  <si>
     <t>則禁止分配以下角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>禁止邏輯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要關鍵字全部滿足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1,D2,D3,D4,D5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +146,46 @@
   </si>
   <si>
     <t>_LSL_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FC_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_F_Model_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FR_Torso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FR_Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Btp_,_Fbp_,_Bbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止邏輯 (等於代表名稱完全相同 ; 包含代表名稱該字串包含即可)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必須含有以下關鍵字才能判定為左欄的商品分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要關鍵字全部滿足 (False代表滿足其一即可)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔名含有以下關鍵字者不編</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,13 +210,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Uber Move Medium"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="DengXian Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,15 +270,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,65 +631,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2865A17C-384F-47B8-8919-792FD1198880}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -633,49 +704,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1081748-3EDC-4416-A1B4-35969B82942D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -687,33 +778,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771FB2D-AD49-4C59-A2D2-C7B2B906919D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -726,48 +818,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EAEEE9-6A0D-49F4-8C91-734FE0EA71CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -778,54 +871,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9789A3B-56AC-4137-A966-417E5703A09F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="b">
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:3">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>